--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Arf1-Pld2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Arf1-Pld2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.41084233333333</v>
+        <v>44.30160133333333</v>
       </c>
       <c r="H2">
-        <v>151.232527</v>
+        <v>132.904804</v>
       </c>
       <c r="I2">
-        <v>0.1533822412306553</v>
+        <v>0.1310981746002036</v>
       </c>
       <c r="J2">
-        <v>0.1625332948695183</v>
+        <v>0.1395903267786693</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.448674</v>
+        <v>5.188164</v>
       </c>
       <c r="N2">
-        <v>22.346022</v>
+        <v>15.564492</v>
       </c>
       <c r="O2">
-        <v>0.2193224153225756</v>
+        <v>0.133836950455521</v>
       </c>
       <c r="P2">
-        <v>0.2253632458423366</v>
+        <v>0.1378024441825222</v>
       </c>
       <c r="Q2">
-        <v>375.4939306063994</v>
+        <v>229.843973179952</v>
       </c>
       <c r="R2">
-        <v>3379.445375457594</v>
+        <v>2068.595758619568</v>
       </c>
       <c r="S2">
-        <v>0.03364016361429727</v>
+        <v>0.01754577989877669</v>
       </c>
       <c r="T2">
-        <v>0.03662903088924425</v>
+        <v>0.01923588821433762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.41084233333333</v>
+        <v>44.30160133333333</v>
       </c>
       <c r="H3">
-        <v>151.232527</v>
+        <v>132.904804</v>
       </c>
       <c r="I3">
-        <v>0.1533822412306553</v>
+        <v>0.1310981746002036</v>
       </c>
       <c r="J3">
-        <v>0.1625332948695183</v>
+        <v>0.1395903267786693</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>16.91634</v>
       </c>
       <c r="O3">
-        <v>0.1660310075420984</v>
+        <v>0.1454613076012213</v>
       </c>
       <c r="P3">
-        <v>0.1706040247419676</v>
+        <v>0.149771222769273</v>
       </c>
       <c r="Q3">
-        <v>284.2556495323533</v>
+        <v>249.8069835663733</v>
       </c>
       <c r="R3">
-        <v>2558.30084579118</v>
+        <v>2248.262852097359</v>
       </c>
       <c r="S3">
-        <v>0.0254662080505909</v>
+        <v>0.01906971190147883</v>
       </c>
       <c r="T3">
-        <v>0.02772883425931282</v>
+        <v>0.0209066139284037</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.41084233333333</v>
+        <v>44.30160133333333</v>
       </c>
       <c r="H4">
-        <v>151.232527</v>
+        <v>132.904804</v>
       </c>
       <c r="I4">
-        <v>0.1533822412306553</v>
+        <v>0.1310981746002036</v>
       </c>
       <c r="J4">
-        <v>0.1625332948695183</v>
+        <v>0.1395903267786693</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.765966666666666</v>
+        <v>10.38992866666667</v>
       </c>
       <c r="N4">
-        <v>29.2979</v>
+        <v>31.169786</v>
       </c>
       <c r="O4">
-        <v>0.2875539186294225</v>
+        <v>0.268024751761329</v>
       </c>
       <c r="P4">
-        <v>0.2954740597840722</v>
+        <v>0.2759661346766835</v>
       </c>
       <c r="Q4">
-        <v>492.3106058659222</v>
+        <v>460.2904776724383</v>
       </c>
       <c r="R4">
-        <v>4430.7954527933</v>
+        <v>4142.614299051944</v>
       </c>
       <c r="S4">
-        <v>0.04410566451403832</v>
+        <v>0.03513755570358294</v>
       </c>
       <c r="T4">
-        <v>0.0480243724851783</v>
+        <v>0.03852220291936453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.41084233333333</v>
+        <v>44.30160133333333</v>
       </c>
       <c r="H5">
-        <v>151.232527</v>
+        <v>132.904804</v>
       </c>
       <c r="I5">
-        <v>0.1533822412306553</v>
+        <v>0.1310981746002036</v>
       </c>
       <c r="J5">
-        <v>0.1625332948695183</v>
+        <v>0.1395903267786693</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.731057</v>
+        <v>3.346565</v>
       </c>
       <c r="N5">
-        <v>5.462114</v>
+        <v>6.69313</v>
       </c>
       <c r="O5">
-        <v>0.08041458353844284</v>
+        <v>0.08632997224088917</v>
       </c>
       <c r="P5">
-        <v>0.05508630306552408</v>
+        <v>0.05925857864370806</v>
       </c>
       <c r="Q5">
-        <v>137.6748838303463</v>
+        <v>148.2581884660867</v>
       </c>
       <c r="R5">
-        <v>826.049302982078</v>
+        <v>889.5491307965199</v>
       </c>
       <c r="S5">
-        <v>0.01233416905075613</v>
+        <v>0.01131770177406682</v>
       </c>
       <c r="T5">
-        <v>0.008953358339420476</v>
+        <v>0.008271924357314685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.41084233333333</v>
+        <v>44.30160133333333</v>
       </c>
       <c r="H6">
-        <v>151.232527</v>
+        <v>132.904804</v>
       </c>
       <c r="I6">
-        <v>0.1533822412306553</v>
+        <v>0.1310981746002036</v>
       </c>
       <c r="J6">
-        <v>0.1625332948695183</v>
+        <v>0.1395903267786693</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.377732666666667</v>
+        <v>14.20137266666667</v>
       </c>
       <c r="N6">
-        <v>25.133198</v>
+        <v>42.604118</v>
       </c>
       <c r="O6">
-        <v>0.2466780749674607</v>
+        <v>0.3663470179410397</v>
       </c>
       <c r="P6">
-        <v>0.2534723665660994</v>
+        <v>0.3772016197278132</v>
       </c>
       <c r="Q6">
-        <v>422.3285605701496</v>
+        <v>629.1435502647635</v>
       </c>
       <c r="R6">
-        <v>3800.957045131346</v>
+        <v>5662.291952382871</v>
       </c>
       <c r="S6">
-        <v>0.03783603600097273</v>
+        <v>0.04802742532229835</v>
       </c>
       <c r="T6">
-        <v>0.04119769889636248</v>
+        <v>0.05265369735924881</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>217.197876</v>
       </c>
       <c r="I7">
-        <v>0.2202852631789851</v>
+        <v>0.2142454163706631</v>
       </c>
       <c r="J7">
-        <v>0.2334278684964451</v>
+        <v>0.2281236010586413</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.448674</v>
+        <v>5.188164</v>
       </c>
       <c r="N7">
-        <v>22.346022</v>
+        <v>15.564492</v>
       </c>
       <c r="O7">
-        <v>0.2193224153225756</v>
+        <v>0.133836950455521</v>
       </c>
       <c r="P7">
-        <v>0.2253632458423366</v>
+        <v>0.1378024441825222</v>
       </c>
       <c r="Q7">
-        <v>539.2787239388081</v>
+        <v>375.619400379888</v>
       </c>
       <c r="R7">
-        <v>4853.508515449273</v>
+        <v>3380.574603418992</v>
       </c>
       <c r="S7">
-        <v>0.04831349598038422</v>
+        <v>0.0286739531761229</v>
       </c>
       <c r="T7">
-        <v>0.05260606211441698</v>
+        <v>0.03143598980159938</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>217.197876</v>
       </c>
       <c r="I8">
-        <v>0.2202852631789851</v>
+        <v>0.2142454163706631</v>
       </c>
       <c r="J8">
-        <v>0.2334278684964451</v>
+        <v>0.2281236010586413</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>16.91634</v>
       </c>
       <c r="O8">
-        <v>0.1660310075420984</v>
+        <v>0.1454613076012213</v>
       </c>
       <c r="P8">
-        <v>0.1706040247419676</v>
+        <v>0.149771222769273</v>
       </c>
       <c r="Q8">
         <v>408.24367974376</v>
@@ -948,10 +948,10 @@
         <v>3674.19311769384</v>
       </c>
       <c r="S8">
-        <v>0.03657418419228321</v>
+        <v>0.03116441841284475</v>
       </c>
       <c r="T8">
-        <v>0.03982373385243228</v>
+        <v>0.03416635067308253</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>217.197876</v>
       </c>
       <c r="I9">
-        <v>0.2202852631789851</v>
+        <v>0.2142454163706631</v>
       </c>
       <c r="J9">
-        <v>0.2334278684964451</v>
+        <v>0.2281236010586413</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.765966666666666</v>
+        <v>10.38992866666667</v>
       </c>
       <c r="N9">
-        <v>29.2979</v>
+        <v>31.169786</v>
       </c>
       <c r="O9">
-        <v>0.2875539186294225</v>
+        <v>0.268024751761329</v>
       </c>
       <c r="P9">
-        <v>0.2954740597840722</v>
+        <v>0.2759661346766835</v>
       </c>
       <c r="Q9">
-        <v>707.0490723622667</v>
+        <v>752.2234793971708</v>
       </c>
       <c r="R9">
-        <v>6363.4416512604</v>
+        <v>6770.011314574536</v>
       </c>
       <c r="S9">
-        <v>0.06334389064343079</v>
+        <v>0.05742307453874956</v>
       </c>
       <c r="T9">
-        <v>0.06897187997138716</v>
+        <v>0.06295438841267902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>217.197876</v>
       </c>
       <c r="I10">
-        <v>0.2202852631789851</v>
+        <v>0.2142454163706631</v>
       </c>
       <c r="J10">
-        <v>0.2334278684964451</v>
+        <v>0.2281236010586413</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.731057</v>
+        <v>3.346565</v>
       </c>
       <c r="N10">
-        <v>5.462114</v>
+        <v>6.69313</v>
       </c>
       <c r="O10">
-        <v>0.08041458353844284</v>
+        <v>0.08632997224088917</v>
       </c>
       <c r="P10">
-        <v>0.05508630306552408</v>
+        <v>0.05925857864370806</v>
       </c>
       <c r="Q10">
-        <v>197.726593211644</v>
+        <v>242.28893663198</v>
       </c>
       <c r="R10">
-        <v>1186.359559269864</v>
+        <v>1453.73361979188</v>
       </c>
       <c r="S10">
-        <v>0.01771414769819436</v>
+        <v>0.01849580084801709</v>
       </c>
       <c r="T10">
-        <v>0.01285867830793447</v>
+        <v>0.01351828035381938</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>217.197876</v>
       </c>
       <c r="I11">
-        <v>0.2202852631789851</v>
+        <v>0.2142454163706631</v>
       </c>
       <c r="J11">
-        <v>0.2334278684964451</v>
+        <v>0.2281236010586413</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.377732666666667</v>
+        <v>14.20137266666667</v>
       </c>
       <c r="N11">
-        <v>25.133198</v>
+        <v>42.604118</v>
       </c>
       <c r="O11">
-        <v>0.2466780749674607</v>
+        <v>0.3663470179410397</v>
       </c>
       <c r="P11">
-        <v>0.2534723665660994</v>
+        <v>0.3772016197278132</v>
       </c>
       <c r="Q11">
-        <v>606.5419136319387</v>
+        <v>1028.169326494819</v>
       </c>
       <c r="R11">
-        <v>5458.877222687448</v>
+        <v>9253.523938453369</v>
       </c>
       <c r="S11">
-        <v>0.05433954466469248</v>
+        <v>0.07848816939492885</v>
       </c>
       <c r="T11">
-        <v>0.05916751425027419</v>
+        <v>0.08604859181746097</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>63.39693300000001</v>
+        <v>82.35175066666666</v>
       </c>
       <c r="H12">
-        <v>190.190799</v>
+        <v>247.055252</v>
       </c>
       <c r="I12">
-        <v>0.192894290605017</v>
+        <v>0.2436969288378267</v>
       </c>
       <c r="J12">
-        <v>0.2044027024380562</v>
+        <v>0.2594828954344383</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.448674</v>
+        <v>5.188164</v>
       </c>
       <c r="N12">
-        <v>22.346022</v>
+        <v>15.564492</v>
       </c>
       <c r="O12">
-        <v>0.2193224153225756</v>
+        <v>0.133836950455521</v>
       </c>
       <c r="P12">
-        <v>0.2253632458423366</v>
+        <v>0.1378024441825222</v>
       </c>
       <c r="Q12">
-        <v>472.2230865168421</v>
+        <v>427.2543881457759</v>
       </c>
       <c r="R12">
-        <v>4250.007778651579</v>
+        <v>3845.289493311984</v>
       </c>
       <c r="S12">
-        <v>0.04230604171742713</v>
+        <v>0.03261565379103083</v>
       </c>
       <c r="T12">
-        <v>0.04606485648038564</v>
+        <v>0.03575737721442342</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>63.39693300000001</v>
+        <v>82.35175066666666</v>
       </c>
       <c r="H13">
-        <v>190.190799</v>
+        <v>247.055252</v>
       </c>
       <c r="I13">
-        <v>0.192894290605017</v>
+        <v>0.2436969288378267</v>
       </c>
       <c r="J13">
-        <v>0.2044027024380562</v>
+        <v>0.2594828954344383</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>16.91634</v>
       </c>
       <c r="O13">
-        <v>0.1660310075420984</v>
+        <v>0.1454613076012213</v>
       </c>
       <c r="P13">
-        <v>0.1706040247419676</v>
+        <v>0.149771222769273</v>
       </c>
       <c r="Q13">
-        <v>357.48135786174</v>
+        <v>464.3634046241866</v>
       </c>
       <c r="R13">
-        <v>3217.33222075566</v>
+        <v>4179.27064161768</v>
       </c>
       <c r="S13">
-        <v>0.03202643341826931</v>
+        <v>0.03544847392715203</v>
       </c>
       <c r="T13">
-        <v>0.03487192370406718</v>
+        <v>0.03886307053692722</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>63.39693300000001</v>
+        <v>82.35175066666666</v>
       </c>
       <c r="H14">
-        <v>190.190799</v>
+        <v>247.055252</v>
       </c>
       <c r="I14">
-        <v>0.192894290605017</v>
+        <v>0.2436969288378267</v>
       </c>
       <c r="J14">
-        <v>0.2044027024380562</v>
+        <v>0.2594828954344383</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.765966666666666</v>
+        <v>10.38992866666667</v>
       </c>
       <c r="N14">
-        <v>29.2979</v>
+        <v>31.169786</v>
       </c>
       <c r="O14">
-        <v>0.2875539186294225</v>
+        <v>0.268024751761329</v>
       </c>
       <c r="P14">
-        <v>0.2954740597840722</v>
+        <v>0.2759661346766835</v>
       </c>
       <c r="Q14">
-        <v>619.1323344469</v>
+        <v>855.6288150017858</v>
       </c>
       <c r="R14">
-        <v>5572.1910100221</v>
+        <v>7700.659335016072</v>
       </c>
       <c r="S14">
-        <v>0.05546750914471525</v>
+        <v>0.06531680885675675</v>
       </c>
       <c r="T14">
-        <v>0.06039569632020814</v>
+        <v>0.07160849166775597</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>63.39693300000001</v>
+        <v>82.35175066666666</v>
       </c>
       <c r="H15">
-        <v>190.190799</v>
+        <v>247.055252</v>
       </c>
       <c r="I15">
-        <v>0.192894290605017</v>
+        <v>0.2436969288378267</v>
       </c>
       <c r="J15">
-        <v>0.2044027024380562</v>
+        <v>0.2594828954344383</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.731057</v>
+        <v>3.346565</v>
       </c>
       <c r="N15">
-        <v>5.462114</v>
+        <v>6.69313</v>
       </c>
       <c r="O15">
-        <v>0.08041458353844284</v>
+        <v>0.08632997224088917</v>
       </c>
       <c r="P15">
-        <v>0.05508630306552408</v>
+        <v>0.05925857864370806</v>
       </c>
       <c r="Q15">
-        <v>173.140637648181</v>
+        <v>275.5954864697933</v>
       </c>
       <c r="R15">
-        <v>1038.843825889086</v>
+        <v>1653.57291881876</v>
       </c>
       <c r="S15">
-        <v>0.01551151404594581</v>
+        <v>0.02103834910175952</v>
       </c>
       <c r="T15">
-        <v>0.0112597892139149</v>
+        <v>0.01537658756579873</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>63.39693300000001</v>
+        <v>82.35175066666666</v>
       </c>
       <c r="H16">
-        <v>190.190799</v>
+        <v>247.055252</v>
       </c>
       <c r="I16">
-        <v>0.192894290605017</v>
+        <v>0.2436969288378267</v>
       </c>
       <c r="J16">
-        <v>0.2044027024380562</v>
+        <v>0.2594828954344383</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.377732666666667</v>
+        <v>14.20137266666667</v>
       </c>
       <c r="N16">
-        <v>25.133198</v>
+        <v>42.604118</v>
       </c>
       <c r="O16">
-        <v>0.2466780749674607</v>
+        <v>0.3663470179410397</v>
       </c>
       <c r="P16">
-        <v>0.2534723665660994</v>
+        <v>0.3772016197278132</v>
       </c>
       <c r="Q16">
-        <v>531.1225565605781</v>
+        <v>1169.507900969748</v>
       </c>
       <c r="R16">
-        <v>4780.103009045202</v>
+        <v>10525.57110872774</v>
       </c>
       <c r="S16">
-        <v>0.04758279227865953</v>
+        <v>0.08927764316112756</v>
       </c>
       <c r="T16">
-        <v>0.05181043671948033</v>
+        <v>0.09787736844953289</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>55.513536</v>
+        <v>61.6746195</v>
       </c>
       <c r="H17">
-        <v>111.027072</v>
+        <v>123.349239</v>
       </c>
       <c r="I17">
-        <v>0.1689079209193933</v>
+        <v>0.1825087534596294</v>
       </c>
       <c r="J17">
-        <v>0.1193235092334022</v>
+        <v>0.1295540872992837</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.448674</v>
+        <v>5.188164</v>
       </c>
       <c r="N17">
-        <v>22.346022</v>
+        <v>15.564492</v>
       </c>
       <c r="O17">
-        <v>0.2193224153225756</v>
+        <v>0.133836950455521</v>
       </c>
       <c r="P17">
-        <v>0.2253632458423366</v>
+        <v>0.1378024441825222</v>
       </c>
       <c r="Q17">
-        <v>413.502232251264</v>
+        <v>319.9780406035979</v>
       </c>
       <c r="R17">
-        <v>2481.013393507584</v>
+        <v>1919.868243621588</v>
       </c>
       <c r="S17">
-        <v>0.03704529318315592</v>
+        <v>0.02442641499447531</v>
       </c>
       <c r="T17">
-        <v>0.02689113334613754</v>
+        <v>0.01785286988367715</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>55.513536</v>
+        <v>61.6746195</v>
       </c>
       <c r="H18">
-        <v>111.027072</v>
+        <v>123.349239</v>
       </c>
       <c r="I18">
-        <v>0.1689079209193933</v>
+        <v>0.1825087534596294</v>
       </c>
       <c r="J18">
-        <v>0.1193235092334022</v>
+        <v>0.1295540872992837</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>16.91634</v>
       </c>
       <c r="O18">
-        <v>0.1660310075420984</v>
+        <v>0.1454613076012213</v>
       </c>
       <c r="P18">
-        <v>0.1706040247419676</v>
+        <v>0.149771222769273</v>
       </c>
       <c r="Q18">
-        <v>313.02861652608</v>
+        <v>347.7696109442099</v>
       </c>
       <c r="R18">
-        <v>1878.17169915648</v>
+        <v>2086.61766566526</v>
       </c>
       <c r="S18">
-        <v>0.02804395229208795</v>
+        <v>0.02654796192690661</v>
       </c>
       <c r="T18">
-        <v>0.02035707092155374</v>
+        <v>0.01940347406957086</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>55.513536</v>
+        <v>61.6746195</v>
       </c>
       <c r="H19">
-        <v>111.027072</v>
+        <v>123.349239</v>
       </c>
       <c r="I19">
-        <v>0.1689079209193933</v>
+        <v>0.1825087534596294</v>
       </c>
       <c r="J19">
-        <v>0.1193235092334022</v>
+        <v>0.1295540872992837</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.765966666666666</v>
+        <v>10.38992866666667</v>
       </c>
       <c r="N19">
-        <v>29.2979</v>
+        <v>31.169786</v>
       </c>
       <c r="O19">
-        <v>0.2875539186294225</v>
+        <v>0.268024751761329</v>
       </c>
       <c r="P19">
-        <v>0.2954740597840722</v>
+        <v>0.2759661346766835</v>
       </c>
       <c r="Q19">
-        <v>542.1433421247999</v>
+        <v>640.794897148809</v>
       </c>
       <c r="R19">
-        <v>3252.8600527488</v>
+        <v>3844.769382892854</v>
       </c>
       <c r="S19">
-        <v>0.04857013454792015</v>
+        <v>0.04891686334028677</v>
       </c>
       <c r="T19">
-        <v>0.03525700170087557</v>
+        <v>0.03575254070354894</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>55.513536</v>
+        <v>61.6746195</v>
       </c>
       <c r="H20">
-        <v>111.027072</v>
+        <v>123.349239</v>
       </c>
       <c r="I20">
-        <v>0.1689079209193933</v>
+        <v>0.1825087534596294</v>
       </c>
       <c r="J20">
-        <v>0.1193235092334022</v>
+        <v>0.1295540872992837</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.731057</v>
+        <v>3.346565</v>
       </c>
       <c r="N20">
-        <v>5.462114</v>
+        <v>6.69313</v>
       </c>
       <c r="O20">
-        <v>0.08041458353844284</v>
+        <v>0.08632997224088917</v>
       </c>
       <c r="P20">
-        <v>0.05508630306552408</v>
+        <v>0.05925857864370806</v>
       </c>
       <c r="Q20">
-        <v>151.610631087552</v>
+        <v>206.3981230070175</v>
       </c>
       <c r="R20">
-        <v>606.442524350208</v>
+        <v>825.59249202807</v>
       </c>
       <c r="S20">
-        <v>0.01358266011707725</v>
+        <v>0.01575597561988909</v>
       </c>
       <c r="T20">
-        <v>0.006573090992473053</v>
+        <v>0.007677191070838422</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>55.513536</v>
+        <v>61.6746195</v>
       </c>
       <c r="H21">
-        <v>111.027072</v>
+        <v>123.349239</v>
       </c>
       <c r="I21">
-        <v>0.1689079209193933</v>
+        <v>0.1825087534596294</v>
       </c>
       <c r="J21">
-        <v>0.1193235092334022</v>
+        <v>0.1295540872992837</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.377732666666667</v>
+        <v>14.20137266666667</v>
       </c>
       <c r="N21">
-        <v>25.133198</v>
+        <v>42.604118</v>
       </c>
       <c r="O21">
-        <v>0.2466780749674607</v>
+        <v>0.3663470179410397</v>
       </c>
       <c r="P21">
-        <v>0.2534723665660994</v>
+        <v>0.3772016197278132</v>
       </c>
       <c r="Q21">
-        <v>465.077563989376</v>
+        <v>875.8642555943669</v>
       </c>
       <c r="R21">
-        <v>2790.465383936256</v>
+        <v>5255.185533566202</v>
       </c>
       <c r="S21">
-        <v>0.04166588077915201</v>
+        <v>0.06686153757807164</v>
       </c>
       <c r="T21">
-        <v>0.03024521227236227</v>
+        <v>0.04886801157164832</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>86.94092833333333</v>
+        <v>77.19964866666666</v>
       </c>
       <c r="H22">
-        <v>260.822785</v>
+        <v>231.598946</v>
       </c>
       <c r="I22">
-        <v>0.2645302840659493</v>
+        <v>0.2284507267316773</v>
       </c>
       <c r="J22">
-        <v>0.2803126249625782</v>
+        <v>0.2432490894289675</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.448674</v>
+        <v>5.188164</v>
       </c>
       <c r="N22">
-        <v>22.346022</v>
+        <v>15.564492</v>
       </c>
       <c r="O22">
-        <v>0.2193224153225756</v>
+        <v>0.133836950455521</v>
       </c>
       <c r="P22">
-        <v>0.2253632458423366</v>
+        <v>0.1378024441825222</v>
       </c>
       <c r="Q22">
-        <v>647.5946324123634</v>
+        <v>400.5244380250479</v>
       </c>
       <c r="R22">
-        <v>5828.35169171127</v>
+        <v>3604.719942225432</v>
       </c>
       <c r="S22">
-        <v>0.05801742082731103</v>
+        <v>0.03057514859511525</v>
       </c>
       <c r="T22">
-        <v>0.06317216301215223</v>
+        <v>0.03352031906848465</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>86.94092833333333</v>
+        <v>77.19964866666666</v>
       </c>
       <c r="H23">
-        <v>260.822785</v>
+        <v>231.598946</v>
       </c>
       <c r="I23">
-        <v>0.2645302840659493</v>
+        <v>0.2284507267316773</v>
       </c>
       <c r="J23">
-        <v>0.2803126249625782</v>
+        <v>0.2432490894289675</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>16.91634</v>
       </c>
       <c r="O23">
-        <v>0.1660310075420984</v>
+        <v>0.1454613076012213</v>
       </c>
       <c r="P23">
-        <v>0.1706040247419676</v>
+        <v>0.149771222769273</v>
       </c>
       <c r="Q23">
-        <v>490.2407678674333</v>
+        <v>435.3118349086266</v>
       </c>
       <c r="R23">
-        <v>4412.1669108069</v>
+        <v>3917.806514177639</v>
       </c>
       <c r="S23">
-        <v>0.04392022958886707</v>
+        <v>0.03323074143283904</v>
       </c>
       <c r="T23">
-        <v>0.04782246200460158</v>
+        <v>0.03643171356128871</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>86.94092833333333</v>
+        <v>77.19964866666666</v>
       </c>
       <c r="H24">
-        <v>260.822785</v>
+        <v>231.598946</v>
       </c>
       <c r="I24">
-        <v>0.2645302840659493</v>
+        <v>0.2284507267316773</v>
       </c>
       <c r="J24">
-        <v>0.2803126249625782</v>
+        <v>0.2432490894289675</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.765966666666666</v>
+        <v>10.38992866666667</v>
       </c>
       <c r="N24">
-        <v>29.2979</v>
+        <v>31.169786</v>
       </c>
       <c r="O24">
-        <v>0.2875539186294225</v>
+        <v>0.268024751761329</v>
       </c>
       <c r="P24">
-        <v>0.2954740597840722</v>
+        <v>0.2759661346766835</v>
       </c>
       <c r="Q24">
-        <v>849.0622080723888</v>
+        <v>802.0988427383952</v>
       </c>
       <c r="R24">
-        <v>7641.5598726515</v>
+        <v>7218.889584645556</v>
       </c>
       <c r="S24">
-        <v>0.07606671977931802</v>
+        <v>0.06123044932195301</v>
       </c>
       <c r="T24">
-        <v>0.08282510930642306</v>
+        <v>0.06712851097333508</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>86.94092833333333</v>
+        <v>77.19964866666666</v>
       </c>
       <c r="H25">
-        <v>260.822785</v>
+        <v>231.598946</v>
       </c>
       <c r="I25">
-        <v>0.2645302840659493</v>
+        <v>0.2284507267316773</v>
       </c>
       <c r="J25">
-        <v>0.2803126249625782</v>
+        <v>0.2432490894289675</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.731057</v>
+        <v>3.346565</v>
       </c>
       <c r="N25">
-        <v>5.462114</v>
+        <v>6.69313</v>
       </c>
       <c r="O25">
-        <v>0.08041458353844284</v>
+        <v>0.08632997224088917</v>
       </c>
       <c r="P25">
-        <v>0.05508630306552408</v>
+        <v>0.05925857864370806</v>
       </c>
       <c r="Q25">
-        <v>237.4406309112483</v>
+        <v>258.3536422401633</v>
       </c>
       <c r="R25">
-        <v>1424.64378546749</v>
+        <v>1550.12185344098</v>
       </c>
       <c r="S25">
-        <v>0.0212720926264693</v>
+        <v>0.01972214489715666</v>
       </c>
       <c r="T25">
-        <v>0.01544138621178117</v>
+        <v>0.01441459529593685</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>86.94092833333333</v>
+        <v>77.19964866666666</v>
       </c>
       <c r="H26">
-        <v>260.822785</v>
+        <v>231.598946</v>
       </c>
       <c r="I26">
-        <v>0.2645302840659493</v>
+        <v>0.2284507267316773</v>
       </c>
       <c r="J26">
-        <v>0.2803126249625782</v>
+        <v>0.2432490894289675</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.377732666666667</v>
+        <v>14.20137266666667</v>
       </c>
       <c r="N26">
-        <v>25.133198</v>
+        <v>42.604118</v>
       </c>
       <c r="O26">
-        <v>0.2466780749674607</v>
+        <v>0.3663470179410397</v>
       </c>
       <c r="P26">
-        <v>0.2534723665660994</v>
+        <v>0.3772016197278132</v>
       </c>
       <c r="Q26">
-        <v>728.3678553684922</v>
+        <v>1096.34098045107</v>
       </c>
       <c r="R26">
-        <v>6555.310698316431</v>
+        <v>9867.068824059626</v>
       </c>
       <c r="S26">
-        <v>0.06525382124398391</v>
+        <v>0.08369224248461332</v>
       </c>
       <c r="T26">
-        <v>0.07105150442762019</v>
+        <v>0.09175395052992222</v>
       </c>
     </row>
   </sheetData>
